--- a/00.Memory systems/Millenium/System words _-_ images.xlsx
+++ b/00.Memory systems/Millenium/System words _-_ images.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58866D3-2347-48EE-A3DA-BBA0857A5480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48393862-CA0C-4CF1-A652-51124EA3439D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EN COURS" sheetId="12" r:id="rId1"/>
-    <sheet name="cartes objet" sheetId="13" r:id="rId2"/>
-    <sheet name="1000 1 seule col" sheetId="7" r:id="rId3"/>
-    <sheet name="VALIDES" sheetId="8" r:id="rId4"/>
-    <sheet name="FIN DE VALIDES" sheetId="9" r:id="rId5"/>
-    <sheet name="tuto" sheetId="5" r:id="rId6"/>
-    <sheet name="10x10" sheetId="2" r:id="rId7"/>
-    <sheet name="100" sheetId="4" r:id="rId8"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId9"/>
-    <sheet name="100 1 seule col" sheetId="6" r:id="rId10"/>
-    <sheet name="System words _-_ images" sheetId="1" r:id="rId11"/>
+    <sheet name="1000 1 seule col" sheetId="7" r:id="rId2"/>
+    <sheet name="VALIDES" sheetId="8" r:id="rId3"/>
+    <sheet name="cartes" sheetId="13" r:id="rId4"/>
+    <sheet name="cartes-objet" sheetId="15" r:id="rId5"/>
+    <sheet name="cartes-personnages" sheetId="14" r:id="rId6"/>
+    <sheet name="FIN DE VALIDES" sheetId="9" r:id="rId7"/>
+    <sheet name="tuto" sheetId="5" r:id="rId8"/>
+    <sheet name="10x10" sheetId="2" r:id="rId9"/>
+    <sheet name="100" sheetId="4" r:id="rId10"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId11"/>
+    <sheet name="100 1 seule col" sheetId="6" r:id="rId12"/>
+    <sheet name="System words _-_ images" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="2775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="2889">
   <si>
     <t xml:space="preserve">Seau </t>
   </si>
@@ -8192,12 +8194,6 @@
     <t>mohamed, myriam</t>
   </si>
   <si>
-    <t>snoopy, spider-man, spirou, superman</t>
-  </si>
-  <si>
-    <t>flash</t>
-  </si>
-  <si>
     <t>Rocky Balboa</t>
   </si>
   <si>
@@ -8225,9 +8221,6 @@
     <t>James Bond // Jon Snow, Joker</t>
   </si>
   <si>
-    <t>Tintin // titeuf</t>
-  </si>
-  <si>
     <t>Tom-Tom et Nana // XIII</t>
   </si>
   <si>
@@ -8312,12 +8305,6 @@
     <t>Tina Turner</t>
   </si>
   <si>
-    <t>Michael Jackson, M</t>
-  </si>
-  <si>
-    <t>Louane</t>
-  </si>
-  <si>
     <t>Tonton David</t>
   </si>
   <si>
@@ -8355,6 +8342,363 @@
   </si>
   <si>
     <t>personnages de film, super héros</t>
+  </si>
+  <si>
+    <t>Lauryn Hill // Louane</t>
+  </si>
+  <si>
+    <t>Tonton David // Tété</t>
+  </si>
+  <si>
+    <t>M // Michael Jackson</t>
+  </si>
+  <si>
+    <t>Vegeta // flash</t>
+  </si>
+  <si>
+    <t>Tintin // titeuf, tic &amp; tac</t>
+  </si>
+  <si>
+    <t>Scratch (écureil age de glace) // snoopy,  Scooby-Doo, Spirou</t>
+  </si>
+  <si>
+    <t>Tiana (La princesse grenouille)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tr - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co - </t>
+  </si>
+  <si>
+    <t>caca, caco</t>
+  </si>
+  <si>
+    <t>case, casse (noisette)</t>
+  </si>
+  <si>
+    <t>pâtes (lustucru), paté</t>
+  </si>
+  <si>
+    <t>bave, baffe</t>
+  </si>
+  <si>
+    <t>cote, couteau</t>
+  </si>
+  <si>
+    <t>cône (orange et glace)</t>
+  </si>
+  <si>
+    <t>coma, comète</t>
+  </si>
+  <si>
+    <t>cors, corde</t>
+  </si>
+  <si>
+    <t>cochon, cauchemard</t>
+  </si>
+  <si>
+    <t>coffre, coiffe</t>
+  </si>
+  <si>
+    <t>coppa, copeau</t>
+  </si>
+  <si>
+    <t>cosse, coussin</t>
+  </si>
+  <si>
+    <t>coton tige</t>
+  </si>
+  <si>
+    <t>cotonneux</t>
+  </si>
+  <si>
+    <t>tutu, tatoo</t>
+  </si>
+  <si>
+    <t>tonneau, tennis</t>
+  </si>
+  <si>
+    <t>tam-tam, tomate</t>
+  </si>
+  <si>
+    <t>terre, tarte</t>
+  </si>
+  <si>
+    <t>tôle, taule</t>
+  </si>
+  <si>
+    <t>tâche, tagine</t>
+  </si>
+  <si>
+    <t>taxi, tacle</t>
+  </si>
+  <si>
+    <t>taf (fumer), tof (photo)</t>
+  </si>
+  <si>
+    <t>tapis, table</t>
+  </si>
+  <si>
+    <t>tue tête - TV</t>
+  </si>
+  <si>
+    <t>tétine - tatane</t>
+  </si>
+  <si>
+    <t>tréfle, totem</t>
+  </si>
+  <si>
+    <t>Tr -  A</t>
+  </si>
+  <si>
+    <t>Tr -  2</t>
+  </si>
+  <si>
+    <t>Tr -  3</t>
+  </si>
+  <si>
+    <t>Tr -  4</t>
+  </si>
+  <si>
+    <t>Tr -  5</t>
+  </si>
+  <si>
+    <t>Tr -  6</t>
+  </si>
+  <si>
+    <t>Tr -  7</t>
+  </si>
+  <si>
+    <t>Tr -  8</t>
+  </si>
+  <si>
+    <t>Tr -  9</t>
+  </si>
+  <si>
+    <t>Tr -  10</t>
+  </si>
+  <si>
+    <t>Tr -  V</t>
+  </si>
+  <si>
+    <t>Tr -  D</t>
+  </si>
+  <si>
+    <t>Tr -  R</t>
+  </si>
+  <si>
+    <t>Ca -  A</t>
+  </si>
+  <si>
+    <t>Ca -  2</t>
+  </si>
+  <si>
+    <t>Ca -  3</t>
+  </si>
+  <si>
+    <t>Ca -  4</t>
+  </si>
+  <si>
+    <t>Ca -  5</t>
+  </si>
+  <si>
+    <t>Ca -  6</t>
+  </si>
+  <si>
+    <t>Ca -  7</t>
+  </si>
+  <si>
+    <t>Ca -  8</t>
+  </si>
+  <si>
+    <t>Ca -  9</t>
+  </si>
+  <si>
+    <t>Ca -  10</t>
+  </si>
+  <si>
+    <t>Ca -  V</t>
+  </si>
+  <si>
+    <t>Ca -  D</t>
+  </si>
+  <si>
+    <t>Ca -  R</t>
+  </si>
+  <si>
+    <t>Pi -  A</t>
+  </si>
+  <si>
+    <t>Pi -  2</t>
+  </si>
+  <si>
+    <t>Pi -  3</t>
+  </si>
+  <si>
+    <t>Pi -  4</t>
+  </si>
+  <si>
+    <t>Pi -  5</t>
+  </si>
+  <si>
+    <t>Pi -  6</t>
+  </si>
+  <si>
+    <t>Pi -  7</t>
+  </si>
+  <si>
+    <t>Pi -  8</t>
+  </si>
+  <si>
+    <t>Pi -  9</t>
+  </si>
+  <si>
+    <t>Pi -  10</t>
+  </si>
+  <si>
+    <t>Pi -  V</t>
+  </si>
+  <si>
+    <t>Pi -  D</t>
+  </si>
+  <si>
+    <t>Pi -  R</t>
+  </si>
+  <si>
+    <t>Co -  A</t>
+  </si>
+  <si>
+    <t>Co -  2</t>
+  </si>
+  <si>
+    <t>Co -  3</t>
+  </si>
+  <si>
+    <t>Co -  4</t>
+  </si>
+  <si>
+    <t>Co -  5</t>
+  </si>
+  <si>
+    <t>Co -  6</t>
+  </si>
+  <si>
+    <t>Co -  7</t>
+  </si>
+  <si>
+    <t>Co -  8</t>
+  </si>
+  <si>
+    <t>Co -  9</t>
+  </si>
+  <si>
+    <t>Co -  10</t>
+  </si>
+  <si>
+    <t>Co -  V</t>
+  </si>
+  <si>
+    <t>Co -  D</t>
+  </si>
+  <si>
+    <t>Co -  R</t>
+  </si>
+  <si>
+    <t>Trèfle</t>
+  </si>
+  <si>
+    <t>Marsupilami</t>
+  </si>
+  <si>
+    <t>Roger Rabit</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Calvin et Hobbes</t>
+  </si>
+  <si>
+    <t>Panthère Rose</t>
+  </si>
+  <si>
+    <t>Scratch (écureil age de glace)</t>
+  </si>
+  <si>
+    <t>Tintin</t>
+  </si>
+  <si>
+    <t>Tom-Tom et Nana</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Tati Danielle</t>
+  </si>
+  <si>
+    <t>Ethan Hunt</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>Lauryn Hill</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
+  </si>
+  <si>
+    <t>Freddie Mercury,</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Céline Dion</t>
+  </si>
+  <si>
+    <t>Lolo</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Xav</t>
+  </si>
+  <si>
+    <t>Flo (cousine)</t>
+  </si>
+  <si>
+    <t>Zitoon &amp; Sophie</t>
+  </si>
+  <si>
+    <t>Tati (Marie &amp; Michelle)</t>
+  </si>
+  <si>
+    <t>Carreau</t>
+  </si>
+  <si>
+    <t>Pique</t>
+  </si>
+  <si>
+    <t>Cœur</t>
   </si>
 </sst>
 </file>
@@ -8632,8 +8976,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8644,12 +8991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -8954,6 +9296,1768 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09685A7E-686A-4684-A403-F097032DD7F7}">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C88" sqref="C88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="8" t="str">
+        <f xml:space="preserve"> B1 &amp; " - " &amp; C1</f>
+        <v>Objet - Personnage</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f t="shared" ref="D2:D65" si="0" xml:space="preserve"> B2 &amp; " - " &amp; C2</f>
+        <v>seau - sot, Zeus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>dé - E.T</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nez, nid - Néo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>mât - Mao</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rat, raie - Râh</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lit, lait - Léo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>jeu, chiot - Joey Star</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>camp, cul - James Bond</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>faon, fée - fou, V vendetta</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>bât, pêt, beu - Baô</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>tasse, tissu - N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>dada, tutu - Dédé, the Dude</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>diner, tonneau - Dani, Tony Montana</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>dame, tami - Tommy Lee Jones</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>dard - Thor</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>dalle, tôle, télé - Dali</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>déchet, tache - N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>duc, ticket - Dark Vador</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>touffe - devin</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>taupe, tapis - Débo</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>NASA, noce - NaS</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>natte, note - Natacha</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nana, none - Nina</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nem - Nâm</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nord - N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nil, nouille - Neil Armstron</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>neige, niche - N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nuque - Nico Priou, Naguy</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>navet - N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>nappe - N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>massue, mousse - Moise, Messi</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>moto, manteau - Matou, Mado</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>manne - Manon, Moine</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>momie - Maman</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>mare, mur - Marie, La Mort</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>malle - Amélie Poulain</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>mache - N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>maquis, masque - Mickey, Mask</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>mafia - mafieu</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>mi-bas - N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rose - Ross Fiends</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rate, rateau - N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>reine, renne - René</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rame, rhum - Rom</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rare, rire - N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>râle, rallye - N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ruche - N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>roc - Rocky</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rêve - Raph</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>rap, râppe - N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lasso - Lise Ondelet</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>latte, loto - Yoda</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>laine - Hélène</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lame, lime - Lâm</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lard - Loris, Laure</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lila - Lilou</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>luge, linge - N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lac - Luke Skywalker, Loki</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lave - Elvis</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>lobe, lapin, loupe - Lapin crétin</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>chaise - Jesus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>chatte, château - Jade</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>chaine, chêne - Johny</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D65" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>chaume, chameau - Jumeaux,  Jimi H</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D66" s="8" t="str">
+        <f t="shared" ref="D66:D101" si="1" xml:space="preserve"> B66 &amp; " - " &amp; C66</f>
+        <v>char - N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>chale - Julie, Jules César</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>chechia, cage - Jojo</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>chèque, choc - Jacques Chi</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>chef, chiffon - JF</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>chappe, chapeau - N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>case - N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>gateau, cotte - Cathou, Gandhi</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>cane, cône - N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>câme, camion - Côme</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>car, cor - N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>cale, colis, colle - Gaelle</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>cache - N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>coq, coco - Coco</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>café, cave - Xavier</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>cap, cappe - Kobe Bryant</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D82" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>face, fesse, vase - N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fête, photo - Vito Corleone</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fane, vin - Van Gogh</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>femme, fumée - N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D86" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>phare, fard - N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D87" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fil, feuille - Flo</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D88" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>vache, fiche - N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fac, vague, foque - N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fève - Veuve</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>vamp - Fabio</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>passe, basse - N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>batte, botte - Bouddha</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>benne, panneau - Ben</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D95" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>boum, pomme - N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D96" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>bar, barre - N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>balle, pelle - Bill Clinton</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>bâche, pioche - Bosh</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>bac - 2Pac, Biggie</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>baffe, bave - Piaf</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>papa - Pâpe</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CD8090-AA40-4635-81E9-8C1D22DB5F70}">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5">
+      <c r="A21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25">
+      <c r="A22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.5">
+      <c r="A23" s="11"/>
+      <c r="D23" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34.5">
+      <c r="A24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34.5">
+      <c r="A25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51.75">
+      <c r="D26" s="22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F2229C-5D51-42D1-BD5F-C533D1BB23B7}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:B101"/>
@@ -9782,7 +11886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:B100"/>
@@ -10602,649 +12706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CDBAAA-8D29-48BA-B8DD-36CD4CFEB934}">
-  <dimension ref="A1:I38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="29"/>
-    <col min="3" max="6" width="47.7109375" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" s="30" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="30" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>2645</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>2646</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>2667</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2681</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B5" s="29">
-        <v>2</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>2651</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>2662</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2674</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>618</v>
-      </c>
-      <c r="B6" s="29">
-        <v>3</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>2653</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>2663</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B7" s="29">
-        <v>4</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>2666</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B8" s="29">
-        <v>5</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>2655</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>2668</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2684</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B9" s="29">
-        <v>6</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>2650</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>2648</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B10" s="29">
-        <v>7</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>2664</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>2669</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>657</v>
-      </c>
-      <c r="B11" s="29">
-        <v>8</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2678</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B12" s="29">
-        <v>9</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>2656</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>2670</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2677</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>2703</v>
-      </c>
-      <c r="B13" s="29">
-        <v>10</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>2659</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>2671</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2683</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>2672</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2682</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>2661</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>2315</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2680</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>2665</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>2673</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="C18" s="30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="C20" s="36" t="s">
-        <v>2707</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>2774</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>2755</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>2706</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="C21" s="30" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>2645</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>2646</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>2742</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>2764</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>601</v>
-      </c>
-      <c r="B23" s="29">
-        <v>2</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>602</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>2724</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>2765</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>2758</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>618</v>
-      </c>
-      <c r="B24" s="29">
-        <v>3</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>2727</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>2760</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>2745</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>646</v>
-      </c>
-      <c r="B25" s="29">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>2740</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2722</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>2766</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>2746</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2709</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B26" s="29">
-        <v>5</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>2728</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>2761</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>2747</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B27" s="29">
-        <v>6</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>2729</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>2767</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>2748</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B28" s="29">
-        <v>7</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>2741</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2738</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>2757</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>657</v>
-      </c>
-      <c r="B29" s="29">
-        <v>8</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>2721</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>2768</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>2750</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>659</v>
-      </c>
-      <c r="B30" s="29">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>2735</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>2769</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>2703</v>
-      </c>
-      <c r="B31" s="29">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2720</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>2770</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2771</v>
-      </c>
-      <c r="I31" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>2762</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1" t="s">
-        <v>2739</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>2759</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>2733</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>2763</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="E35"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="D37" s="30" t="s">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="D38" s="30" t="s">
-        <v>2773</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECD9C-4D5F-41DD-905E-EBEA8C03C199}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:X1004"/>
@@ -25779,7 +27240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1674CE68-766B-41EE-87A4-C256972EA1B4}">
   <dimension ref="C9:C12"/>
   <sheetViews>
@@ -25800,7 +27261,2616 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CDBAAA-8D29-48BA-B8DD-36CD4CFEB934}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="29"/>
+    <col min="3" max="6" width="47.7109375" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" s="30" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="30" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" s="29">
+        <v>3</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B7" s="29">
+        <v>4</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B8" s="29">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B9" s="29">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B10" s="29">
+        <v>7</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" s="29">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B13" s="29">
+        <v>10</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="C20" s="32" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>2706</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="C21" s="30" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>601</v>
+      </c>
+      <c r="B23" s="29">
+        <v>2</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" s="29">
+        <v>3</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>646</v>
+      </c>
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B26" s="29">
+        <v>5</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B27" s="29">
+        <v>6</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B28" s="29">
+        <v>7</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>657</v>
+      </c>
+      <c r="B29" s="29">
+        <v>8</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>659</v>
+      </c>
+      <c r="B30" s="29">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>2764</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B31" s="29">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="E35"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37" s="30" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="D38" s="30" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7505E499-B8FB-4050-9FE6-AA7442657793}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="29"/>
+    <col min="5" max="5" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="9" width="47.7109375" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1" s="29" t="str">
+        <f>A1&amp;" "&amp;B1</f>
+        <v>Tr -  A</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B2" s="29">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="str">
+        <f t="shared" ref="C2:C52" si="0">A2&amp;" "&amp;B2</f>
+        <v>Tr -  2</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  3</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B4" s="29">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  4</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B5" s="29">
+        <v>5</v>
+      </c>
+      <c r="C5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  5</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B6" s="29">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  6</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B7" s="29">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  7</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B8" s="29">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  8</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B9" s="29">
+        <v>9</v>
+      </c>
+      <c r="C9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  9</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B10" s="29">
+        <v>10</v>
+      </c>
+      <c r="C10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  10</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  V</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  D</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  R</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  A</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>2820</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  2</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B16" s="29">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  3</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B17" s="29">
+        <v>4</v>
+      </c>
+      <c r="C17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  4</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B18" s="29">
+        <v>5</v>
+      </c>
+      <c r="C18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  5</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B19" s="29">
+        <v>6</v>
+      </c>
+      <c r="C19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  6</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B20" s="29">
+        <v>7</v>
+      </c>
+      <c r="C20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  7</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B21" s="29">
+        <v>8</v>
+      </c>
+      <c r="C21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  8</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B22" s="29">
+        <v>9</v>
+      </c>
+      <c r="C22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  9</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B23" s="29">
+        <v>10</v>
+      </c>
+      <c r="C23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  10</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  V</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  D</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  R</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  A</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B28" s="29">
+        <v>2</v>
+      </c>
+      <c r="C28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  2</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B29" s="29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  3</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B30" s="29">
+        <v>4</v>
+      </c>
+      <c r="C30" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  4</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B31" s="29">
+        <v>5</v>
+      </c>
+      <c r="C31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  5</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>2837</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B32" s="29">
+        <v>6</v>
+      </c>
+      <c r="C32" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  6</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B33" s="29">
+        <v>7</v>
+      </c>
+      <c r="C33" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  7</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B34" s="29">
+        <v>8</v>
+      </c>
+      <c r="C34" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  8</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B35" s="29">
+        <v>9</v>
+      </c>
+      <c r="C35" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  9</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B36" s="29">
+        <v>10</v>
+      </c>
+      <c r="C36" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  10</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  V</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C38" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  D</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C39" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  R</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C40" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  A</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B41" s="29">
+        <v>2</v>
+      </c>
+      <c r="C41" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  2</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B42" s="29">
+        <v>3</v>
+      </c>
+      <c r="C42" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  3</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B43" s="29">
+        <v>4</v>
+      </c>
+      <c r="C43" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  4</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B44" s="29">
+        <v>5</v>
+      </c>
+      <c r="C44" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  5</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B45" s="29">
+        <v>6</v>
+      </c>
+      <c r="C45" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  6</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B46" s="29">
+        <v>7</v>
+      </c>
+      <c r="C46" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  7</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B47" s="29">
+        <v>8</v>
+      </c>
+      <c r="C47" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  8</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B48" s="29">
+        <v>9</v>
+      </c>
+      <c r="C48" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  9</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B49" s="29">
+        <v>10</v>
+      </c>
+      <c r="C49" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  10</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C50" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  V</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C51" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  D</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C52" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  R</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A89344B-05D0-4E21-965F-2CB06F7240F7}">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="29"/>
+    <col min="5" max="5" width="11.42578125" style="37"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="9" width="47.7109375" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="37" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="37" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="37" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="37" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C5" s="29" t="str">
+        <f>A5&amp;" "&amp;B5</f>
+        <v>Tr -  A</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29" t="str">
+        <f t="shared" ref="C6:C56" si="0">A6&amp;" "&amp;B6</f>
+        <v>Tr -  2</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F6" t="s">
+        <v>602</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  3</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  4</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2861</v>
+      </c>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B9" s="29">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  5</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B10" s="29">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  6</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B11" s="29">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  7</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2863</v>
+      </c>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  8</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B13" s="29">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  9</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B14" s="29">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  10</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  V</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  D</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tr -  R</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  A</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>2820</v>
+      </c>
+      <c r="F18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B19" s="29">
+        <v>2</v>
+      </c>
+      <c r="C19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  2</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B20" s="29">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  3</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B21" s="29">
+        <v>4</v>
+      </c>
+      <c r="C21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  4</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B22" s="29">
+        <v>5</v>
+      </c>
+      <c r="C22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  5</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B23" s="29">
+        <v>6</v>
+      </c>
+      <c r="C23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  6</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B24" s="29">
+        <v>7</v>
+      </c>
+      <c r="C24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  7</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B25" s="29">
+        <v>8</v>
+      </c>
+      <c r="C25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  8</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B26" s="29">
+        <v>9</v>
+      </c>
+      <c r="C26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  9</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B27" s="29">
+        <v>10</v>
+      </c>
+      <c r="C27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  10</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  V</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  D</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C30" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ca -  R</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  A</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B32" s="29">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  2</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B33" s="29">
+        <v>3</v>
+      </c>
+      <c r="C33" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  3</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B34" s="29">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  4</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B35" s="29">
+        <v>5</v>
+      </c>
+      <c r="C35" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  5</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>2837</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B36" s="29">
+        <v>6</v>
+      </c>
+      <c r="C36" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  6</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B37" s="29">
+        <v>7</v>
+      </c>
+      <c r="C37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  7</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B38" s="29">
+        <v>8</v>
+      </c>
+      <c r="C38" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  8</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B39" s="29">
+        <v>9</v>
+      </c>
+      <c r="C39" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  9</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B40" s="29">
+        <v>10</v>
+      </c>
+      <c r="C40" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  10</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C41" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  V</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C42" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  D</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C43" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pi -  R</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C44" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  A</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B45" s="29">
+        <v>2</v>
+      </c>
+      <c r="C45" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  2</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B46" s="29">
+        <v>3</v>
+      </c>
+      <c r="C46" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  3</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B47" s="29">
+        <v>4</v>
+      </c>
+      <c r="C47" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  4</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B48" s="29">
+        <v>5</v>
+      </c>
+      <c r="C48" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  5</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B49" s="29">
+        <v>6</v>
+      </c>
+      <c r="C49" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  6</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B50" s="29">
+        <v>7</v>
+      </c>
+      <c r="C50" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  7</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B51" s="29">
+        <v>8</v>
+      </c>
+      <c r="C51" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  8</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B52" s="29">
+        <v>9</v>
+      </c>
+      <c r="C52" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  9</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B53" s="29">
+        <v>10</v>
+      </c>
+      <c r="C53" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  10</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C54" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  V</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C55" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  D</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C56" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Co -  R</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3022826-FC86-4D66-B7C3-3F349A21DD03}">
   <dimension ref="C9:C12"/>
   <sheetViews>
@@ -25821,7 +29891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D472CF9A-9C61-4608-A7F1-6D0F465AEF1F}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A2:C12"/>
@@ -25910,7 +29980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517801A8-E702-4F0C-A33A-3145E4D88B2F}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:AE102"/>
@@ -25957,56 +30027,56 @@
   <sheetData>
     <row r="1" spans="1:31" s="13" customFormat="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="33">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34">
+        <v>1</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34">
         <v>2</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34">
         <v>3</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="33">
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="34">
         <v>4</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="33">
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="34">
         <v>5</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33">
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="34">
         <v>6</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33">
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="34">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="33">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="34">
         <v>8</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="33">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="34">
         <v>9</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
     </row>
     <row r="2" spans="1:31" s="19" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="14"/>
@@ -27193,1766 +31263,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09685A7E-686A-4684-A403-F097032DD7F7}">
-  <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C88" sqref="C88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="8" t="str">
-        <f xml:space="preserve"> B1 &amp; " - " &amp; C1</f>
-        <v>Objet - Personnage</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D65" si="0" xml:space="preserve"> B2 &amp; " - " &amp; C2</f>
-        <v>seau - sot, Zeus</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>dé - E.T</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nez, nid - Néo</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>mât - Mao</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rat, raie - Râh</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lit, lait - Léo</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>jeu, chiot - Joey Star</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>camp, cul - James Bond</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>faon, fée - fou, V vendetta</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>bât, pêt, beu - Baô</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>tasse, tissu - N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>dada, tutu - Dédé, the Dude</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>diner, tonneau - Dani, Tony Montana</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>dame, tami - Tommy Lee Jones</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>dard - Thor</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>dalle, tôle, télé - Dali</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>déchet, tache - N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>duc, ticket - Dark Vador</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>touffe - devin</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>taupe, tapis - Débo</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>NASA, noce - NaS</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>natte, note - Natacha</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nana, none - Nina</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nem - Nâm</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nord - N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nil, nouille - Neil Armstron</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>neige, niche - N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nuque - Nico Priou, Naguy</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>navet - N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>nappe - N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>massue, mousse - Moise, Messi</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>moto, manteau - Matou, Mado</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>manne - Manon, Moine</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>momie - Maman</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>mare, mur - Marie, La Mort</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>malle - Amélie Poulain</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>mache - N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>maquis, masque - Mickey, Mask</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>mafia - mafieu</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>mi-bas - N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rose - Ross Fiends</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rate, rateau - N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>reine, renne - René</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rame, rhum - Rom</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rare, rire - N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>râle, rallye - N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ruche - N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>roc - Rocky</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rêve - Raph</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rap, râppe - N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lasso - Lise Ondelet</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>latte, loto - Yoda</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>laine - Hélène</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lame, lime - Lâm</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lard - Loris, Laure</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lila - Lilou</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>luge, linge - N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lac - Luke Skywalker, Loki</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lave - Elvis</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>lobe, lapin, loupe - Lapin crétin</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>chaise - Jesus</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>chatte, château - Jade</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>chaine, chêne - Johny</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>chaume, chameau - Jumeaux,  Jimi H</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D66" s="8" t="str">
-        <f t="shared" ref="D66:D101" si="1" xml:space="preserve"> B66 &amp; " - " &amp; C66</f>
-        <v>char - N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>chale - Julie, Jules César</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>chechia, cage - Jojo</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>chèque, choc - Jacques Chi</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>chef, chiffon - JF</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D71" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>chappe, chapeau - N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D72" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>case - N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>gateau, cotte - Cathou, Gandhi</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D74" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>cane, cône - N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>câme, camion - Côme</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>car, cor - N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>cale, colis, colle - Gaelle</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>cache - N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D79" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>coq, coco - Coco</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D80" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>café, cave - Xavier</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D81" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>cap, cappe - Kobe Bryant</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D82" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>face, fesse, vase - N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="D83" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>fête, photo - Vito Corleone</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D84" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>fane, vin - Van Gogh</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D85" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>femme, fumée - N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>phare, fard - N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="D87" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>fil, feuille - Flo</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D88" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>vache, fiche - N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D89" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>fac, vague, foque - N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D90" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>fève - Veuve</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D91" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>vamp - Fabio</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D92" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>passe, basse - N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D93" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>batte, botte - Bouddha</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>benne, panneau - Ben</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D95" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>boum, pomme - N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D96" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>bar, barre - N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D97" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>balle, pelle - Bill Clinton</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>bâche, pioche - Bosh</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>bac - 2Pac, Biggie</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>baffe, bave - Piaf</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>papa - Pâpe</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CD8090-AA40-4635-81E9-8C1D22DB5F70}">
-  <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="E8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34.5">
-      <c r="A21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25">
-      <c r="A22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34.5">
-      <c r="A23" s="11"/>
-      <c r="D23" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34.5">
-      <c r="A24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34.5">
-      <c r="A25" t="s">
-        <v>314</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51.75">
-      <c r="D26" s="22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>